--- a/Boston - Current design/3D printed version/Fasteners-and-accessories-BOM.xlsx
+++ b/Boston - Current design/3D printed version/Fasteners-and-accessories-BOM.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">M3x0.5, 6mm long ISO 7380 button head screw, stainless steel</t>
+    <t xml:space="preserve">M3x0.5, 6mm long ISO 7380 button head screw, stainless steel, Torx T10 head</t>
   </si>
   <si>
     <t xml:space="preserve">90991A112</t>
   </si>
   <si>
-    <t xml:space="preserve">M3x0.5, 10mm long ISO 7380 button head screw, stainless steel</t>
+    <t xml:space="preserve">M3x0.5, 10mm long ISO 7380 button head screw, stainless steell, Torx T10 head</t>
   </si>
   <si>
     <t xml:space="preserve">90991A114</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">90591A250</t>
   </si>
   <si>
-    <t xml:space="preserve">Recommend against a stainless nut due to galling issues</t>
+    <t xml:space="preserve">Recommend against using a stainless nut due to galling issues when using stainless-on-stainless</t>
   </si>
   <si>
     <t xml:space="preserve">M2 5mm long Delta PT ® Torx head thread forming screw – 3BT-P8629-00-0025</t>
@@ -68,7 +68,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Other self-tapping screws </t>
+      <t xml:space="preserve">Other M2 5mm-long self-tapping screws </t>
     </r>
     <r>
       <rPr>
@@ -222,10 +222,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
